--- a/duodyne.io.port.map.xlsx
+++ b/duodyne.io.port.map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Board</t>
   </si>
@@ -207,9 +207,6 @@
     <t>TTS</t>
   </si>
   <si>
-    <t>$95</t>
-  </si>
-  <si>
     <t>x0</t>
   </si>
   <si>
@@ -316,6 +313,12 @@
   </si>
   <si>
     <t>PARALLEL</t>
+  </si>
+  <si>
+    <t>$98</t>
+  </si>
+  <si>
+    <t>$9F</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -407,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +735,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,52 +771,52 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
-      </c>
-      <c r="W1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -820,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -829,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -865,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -889,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -898,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -931,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -964,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -997,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1030,7 +1034,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1063,7 +1067,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1096,7 +1100,7 @@
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1129,21 +1133,29 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
@@ -1152,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1169,7 +1181,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1186,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1203,7 +1215,7 @@
         <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1220,7 +1232,7 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1249,7 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,10 +1288,10 @@
         <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/duodyne.io.port.map.xlsx
+++ b/duodyne.io.port.map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>Board</t>
   </si>
@@ -319,6 +319,36 @@
   </si>
   <si>
     <t>$9F</t>
+  </si>
+  <si>
+    <t>IO.Media</t>
+  </si>
+  <si>
+    <t>VDP</t>
+  </si>
+  <si>
+    <t>$A0</t>
+  </si>
+  <si>
+    <t>$A3</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>$A4</t>
+  </si>
+  <si>
+    <t>$A5</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>$A6</t>
+  </si>
+  <si>
+    <t>$A7</t>
   </si>
 </sst>
 </file>
@@ -337,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +416,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -399,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -411,6 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Board"/>
     <tableColumn id="2" name="Device"/>
@@ -732,10 +769,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1203,14 @@
       <c r="G12" t="s">
         <v>89</v>
       </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1292,6 +1337,48 @@
       </c>
       <c r="D20" s="2" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/duodyne.io.port.map.xlsx
+++ b/duodyne.io.port.map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
   <si>
     <t>Board</t>
   </si>
@@ -315,9 +315,6 @@
     <t>PARALLEL</t>
   </si>
   <si>
-    <t>$98</t>
-  </si>
-  <si>
     <t>$9F</t>
   </si>
   <si>
@@ -349,6 +346,90 @@
   </si>
   <si>
     <t>$A7</t>
+  </si>
+  <si>
+    <t>IO.SelfHost</t>
+  </si>
+  <si>
+    <t>$A8</t>
+  </si>
+  <si>
+    <t>$AF</t>
+  </si>
+  <si>
+    <t>$B8</t>
+  </si>
+  <si>
+    <t>$BF</t>
+  </si>
+  <si>
+    <t>DualESP32</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>$9C</t>
+  </si>
+  <si>
+    <t>IO.GDC</t>
+  </si>
+  <si>
+    <t>$9D</t>
+  </si>
+  <si>
+    <t>$9E</t>
+  </si>
+  <si>
+    <t>GDC</t>
+  </si>
+  <si>
+    <t>$C0</t>
+  </si>
+  <si>
+    <t>$C3</t>
+  </si>
+  <si>
+    <t>LATCH</t>
+  </si>
+  <si>
+    <t>$C4</t>
+  </si>
+  <si>
+    <t>$C7</t>
+  </si>
+  <si>
+    <t>RAMDAC</t>
+  </si>
+  <si>
+    <t>$C8</t>
+  </si>
+  <si>
+    <t>$CF</t>
+  </si>
+  <si>
+    <t>IO.Text</t>
+  </si>
+  <si>
+    <t>$96</t>
+  </si>
+  <si>
+    <t>$97</t>
+  </si>
+  <si>
+    <t>65C816 Processor</t>
+  </si>
+  <si>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>$95</t>
+  </si>
+  <si>
+    <t>$D0</t>
+  </si>
+  <si>
+    <t>$DF</t>
   </si>
 </sst>
 </file>
@@ -367,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +503,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -446,8 +557,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+  <autoFilter ref="A1:E32"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Board"/>
     <tableColumn id="2" name="Device"/>
@@ -769,15 +884,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1177,15 +1292,13 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1203,14 +1316,22 @@
       <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1228,6 +1349,14 @@
       <c r="G13" t="s">
         <v>90</v>
       </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1245,6 +1374,22 @@
       <c r="G14" t="s">
         <v>91</v>
       </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1262,6 +1407,22 @@
       <c r="G15" t="s">
         <v>92</v>
       </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1326,59 +1487,185 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/duodyne.io.port.map.xlsx
+++ b/duodyne.io.port.map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
   <si>
     <t>Board</t>
   </si>
@@ -426,10 +426,10 @@
     <t>$95</t>
   </si>
   <si>
-    <t>$D0</t>
-  </si>
-  <si>
-    <t>$DF</t>
+    <t>Processor (Z80, 65C816) *</t>
+  </si>
+  <si>
+    <t>* Z80 and 65C816 Processor board share IO ports. They have mutually exclusive, local IO (Mapper &amp; UART) accessible only to the CPU</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
-  <autoFilter ref="A1:E32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Board"/>
     <tableColumn id="2" name="Device"/>
@@ -884,15 +884,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1407,22 +1407,6 @@
       <c r="G15" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1654,17 +1638,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>137</v>
       </c>
     </row>
